--- a/LM_Task.xlsx
+++ b/LM_Task.xlsx
@@ -742,7 +742,7 @@
         <v>849</v>
       </c>
       <c r="M5" s="2">
-        <v>549</v>
+        <v>576</v>
       </c>
       <c r="N5" s="2" t="str">
         <v>1h</v>
@@ -757,7 +757,7 @@
         <v/>
       </c>
       <c r="R5" s="2">
-        <v>82350</v>
+        <v>86400</v>
       </c>
       <c r="S5" s="2">
         <v>150</v>
@@ -801,7 +801,7 @@
         <v>45</v>
       </c>
       <c r="M6" s="2">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N6" s="2" t="str">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v/>
       </c>
       <c r="R6" s="2">
-        <v>5400</v>
+        <v>9450</v>
       </c>
       <c r="S6" s="2">
         <v>150</v>
@@ -860,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N7" s="2" t="str">
         <v>1h</v>
@@ -875,7 +875,7 @@
         <v>Highest</v>
       </c>
       <c r="R7" s="2">
-        <v>2250</v>
+        <v>3600</v>
       </c>
       <c r="S7" s="2">
         <v>150</v>
@@ -919,7 +919,7 @@
         <v>10</v>
       </c>
       <c r="M8" s="2">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N8" s="2" t="str">
         <v>0</v>
@@ -934,7 +934,7 @@
         <v>Highest</v>
       </c>
       <c r="R8" s="2">
-        <v>1800</v>
+        <v>3150</v>
       </c>
       <c r="S8" s="2">
         <v>0</v>
@@ -978,7 +978,7 @@
         <v>10</v>
       </c>
       <c r="M9" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N9" s="2" t="str">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>Highest</v>
       </c>
       <c r="R9" s="2">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="S9" s="2">
         <v>0</v>

--- a/LM_Task.xlsx
+++ b/LM_Task.xlsx
@@ -463,7 +463,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Tasks"/>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -742,7 +742,7 @@
         <v>849</v>
       </c>
       <c r="M5" s="2">
-        <v>576</v>
+        <v>666</v>
       </c>
       <c r="N5" s="2" t="str">
         <v>1h</v>
@@ -757,7 +757,7 @@
         <v/>
       </c>
       <c r="R5" s="2">
-        <v>86400</v>
+        <v>99900</v>
       </c>
       <c r="S5" s="2">
         <v>150</v>
@@ -1019,10 +1019,10 @@
         <v/>
       </c>
       <c r="G10" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H10" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I10" s="2" t="str">
         <v>20/03/2020 09:35</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="L10" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M10" s="2">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="N10" s="2" t="str">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v/>
       </c>
       <c r="R10" s="2">
-        <v>9450</v>
+        <v>22950</v>
       </c>
       <c r="S10" s="2">
         <v>0</v>
@@ -1066,25 +1066,25 @@
         <v>2</v>
       </c>
       <c r="C11" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D11" s="2" t="str">
-        <v>Plan de sécurité API</v>
+        <v>Exigences envers le système</v>
       </c>
       <c r="E11" s="2" t="str">
         <v/>
       </c>
       <c r="F11" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G11" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H11" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I11" s="2" t="str">
-        <v>19/03/2020 16:24</v>
+        <v>24/03/2020 16:57</v>
       </c>
       <c r="J11" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M11" s="2">
         <v>9</v>
@@ -1105,10 +1105,10 @@
         <v/>
       </c>
       <c r="P11" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q11" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R11" s="2">
         <v>1350</v>
@@ -1119,16 +1119,16 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="str">
-        <v>2.2</v>
+        <v>2.1.1</v>
       </c>
       <c r="B12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D12" s="2" t="str">
-        <v>MCD + MLD + Etablir une base</v>
+        <v>PBS</v>
       </c>
       <c r="E12" s="2" t="str">
         <v/>
@@ -1137,13 +1137,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G12" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H12" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I12" s="2" t="str">
-        <v>20/03/2020 09:47</v>
+        <v>24/03/2020 16:57</v>
       </c>
       <c r="J12" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1152,10 +1152,10 @@
         <v>0</v>
       </c>
       <c r="L12" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M12" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N12" s="2" t="str">
         <v>0</v>
@@ -1170,7 +1170,7 @@
         <v>Medium</v>
       </c>
       <c r="R12" s="2">
-        <v>2700</v>
+        <v>1350</v>
       </c>
       <c r="S12" s="2">
         <v>0</v>
@@ -1178,31 +1178,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="str">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D13" s="2" t="str">
-        <v>Schéma et explication des technologies utilisées</v>
+        <v>Etude détaillée</v>
       </c>
       <c r="E13" s="2" t="str">
         <v/>
       </c>
       <c r="F13" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G13" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H13" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I13" s="2" t="str">
-        <v>20/03/2020 09:52</v>
+        <v>24/03/2020 16:57</v>
       </c>
       <c r="J13" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="L13" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M13" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N13" s="2" t="str">
         <v>0</v>
@@ -1223,13 +1223,13 @@
         <v/>
       </c>
       <c r="P13" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q13" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R13" s="2">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="S13" s="2">
         <v>0</v>
@@ -1237,16 +1237,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="str">
-        <v>2.4</v>
+        <v>2.2.1</v>
       </c>
       <c r="B14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D14" s="2" t="str">
-        <v>UML</v>
+        <v>Plan de release</v>
       </c>
       <c r="E14" s="2" t="str">
         <v/>
@@ -1255,13 +1255,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G14" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H14" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I14" s="2" t="str">
-        <v>20/03/2020 09:52</v>
+        <v>24/03/2020 16:57</v>
       </c>
       <c r="J14" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1270,10 +1270,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M14" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N14" s="2" t="str">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>Medium</v>
       </c>
       <c r="R14" s="2">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="S14" s="2">
         <v>0</v>
@@ -1296,31 +1296,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="str">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D15" s="2" t="str">
-        <v>Diagramme de classe</v>
+        <v>Architecture du système</v>
       </c>
       <c r="E15" s="2" t="str">
         <v/>
       </c>
       <c r="F15" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G15" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H15" s="2" t="str">
-        <v>08/06/2020 19:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I15" s="2" t="str">
-        <v>20/03/2020 10:31</v>
+        <v>24/03/2020 16:58</v>
       </c>
       <c r="J15" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="2">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="M15" s="2">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="N15" s="2" t="str">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v/>
       </c>
       <c r="P15" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q15" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R15" s="2">
-        <v>1800</v>
+        <v>13500</v>
       </c>
       <c r="S15" s="2">
         <v>0</v>
@@ -1355,31 +1355,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="str">
+        <v>2.3.1</v>
+      </c>
+      <c r="B16" s="2">
         <v>3</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
       <c r="C16" s="2" t="str">
-        <v>project</v>
+        <v>task</v>
       </c>
       <c r="D16" s="2" t="str">
-        <v>Réalisation</v>
+        <v>Use case / user story</v>
       </c>
       <c r="E16" s="2" t="str">
         <v/>
       </c>
       <c r="F16" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G16" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H16" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I16" s="2" t="str">
-        <v>20/03/2020 09:43</v>
+        <v>24/03/2020 16:58</v>
       </c>
       <c r="J16" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L16" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M16" s="2">
-        <v>390</v>
+        <v>18</v>
       </c>
       <c r="N16" s="2" t="str">
         <v>0</v>
@@ -1400,13 +1400,13 @@
         <v/>
       </c>
       <c r="P16" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q16" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R16" s="2">
-        <v>58500</v>
+        <v>2700</v>
       </c>
       <c r="S16" s="2">
         <v>0</v>
@@ -1414,31 +1414,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="str">
-        <v>3.1</v>
+        <v>2.3.2</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D17" s="2" t="str">
-        <v>API sécurisé</v>
+        <v>MCD /MLD</v>
       </c>
       <c r="E17" s="2" t="str">
         <v/>
       </c>
       <c r="F17" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G17" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H17" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I17" s="2" t="str">
-        <v>20/03/2020 09:43</v>
+        <v>24/03/2020 16:59</v>
       </c>
       <c r="J17" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1447,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="L17" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M17" s="2">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="N17" s="2" t="str">
         <v>0</v>
@@ -1459,13 +1459,13 @@
         <v/>
       </c>
       <c r="P17" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q17" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R17" s="2">
-        <v>13500</v>
+        <v>2700</v>
       </c>
       <c r="S17" s="2">
         <v>0</v>
@@ -1473,31 +1473,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="str">
-        <v>3.1.1</v>
+        <v>2.3.3</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
       <c r="C18" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D18" s="2" t="str">
-        <v>Créer l'API</v>
+        <v>WBS affiné</v>
       </c>
       <c r="E18" s="2" t="str">
         <v/>
       </c>
       <c r="F18" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G18" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H18" s="2" t="str">
-        <v>08/06/2020 19:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I18" s="2" t="str">
-        <v>21/03/2020 09:53</v>
+        <v>24/03/2020 17:00</v>
       </c>
       <c r="J18" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1506,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="M18" s="2">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="N18" s="2" t="str">
         <v>0</v>
@@ -1518,13 +1518,13 @@
         <v/>
       </c>
       <c r="P18" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q18" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R18" s="2">
-        <v>12600</v>
+        <v>2700</v>
       </c>
       <c r="S18" s="2">
         <v>0</v>
@@ -1532,16 +1532,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="str">
-        <v>3.1.1.1</v>
+        <v>2.3.4</v>
       </c>
       <c r="B19" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D19" s="2" t="str">
-        <v>Créer les controlleurs</v>
+        <v>Diagrammes de classe</v>
       </c>
       <c r="E19" s="2" t="str">
         <v/>
@@ -1550,13 +1550,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G19" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H19" s="2" t="str">
-        <v>08/06/2020 19:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I19" s="2" t="str">
-        <v>21/03/2020 09:54</v>
+        <v>24/03/2020 17:00</v>
       </c>
       <c r="J19" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1565,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="M19" s="2">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="N19" s="2" t="str">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         <v>Open</v>
       </c>
       <c r="Q19" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R19" s="2">
-        <v>9900</v>
+        <v>1350</v>
       </c>
       <c r="S19" s="2">
         <v>0</v>
@@ -1591,16 +1591,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="str">
-        <v>3.1.1.2</v>
+        <v>2.3.5</v>
       </c>
       <c r="B20" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D20" s="2" t="str">
-        <v>Créer les modèles</v>
+        <v>Diagramme de composants</v>
       </c>
       <c r="E20" s="2" t="str">
         <v/>
@@ -1609,13 +1609,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G20" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H20" s="2" t="str">
-        <v>08/06/2020 19:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I20" s="2" t="str">
-        <v>21/03/2020 09:54</v>
+        <v>24/03/2020 17:00</v>
       </c>
       <c r="J20" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="2">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="M20" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N20" s="2" t="str">
         <v>0</v>
@@ -1639,10 +1639,10 @@
         <v>Open</v>
       </c>
       <c r="Q20" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R20" s="2">
-        <v>2700</v>
+        <v>1350</v>
       </c>
       <c r="S20" s="2">
         <v>0</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="str">
-        <v>3.1.2</v>
+        <v>2.3.6</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
@@ -1659,7 +1659,7 @@
         <v>task</v>
       </c>
       <c r="D21" s="2" t="str">
-        <v>Coupler Identity (Core) avec la technologie</v>
+        <v>Diagrammes de séquences</v>
       </c>
       <c r="E21" s="2" t="str">
         <v/>
@@ -1668,13 +1668,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G21" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H21" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I21" s="2" t="str">
-        <v>20/03/2020 09:57</v>
+        <v>24/03/2020 17:00</v>
       </c>
       <c r="J21" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M21" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N21" s="2" t="str">
         <v>0</v>
@@ -1698,10 +1698,10 @@
         <v>Open</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <v>Highest</v>
+        <v>Medium</v>
       </c>
       <c r="R21" s="2">
-        <v>450</v>
+        <v>1350</v>
       </c>
       <c r="S21" s="2">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="str">
-        <v>3.1.3</v>
+        <v>2.3.7</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
@@ -1718,7 +1718,7 @@
         <v>task</v>
       </c>
       <c r="D22" s="2" t="str">
-        <v>Créer l'emplacement pour les API</v>
+        <v>Diagramme d'état</v>
       </c>
       <c r="E22" s="2" t="str">
         <v/>
@@ -1727,13 +1727,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G22" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H22" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I22" s="2" t="str">
-        <v>20/03/2020 09:58</v>
+        <v>24/03/2020 17:00</v>
       </c>
       <c r="J22" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1742,10 +1742,10 @@
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M22" s="2">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="N22" s="2" t="str">
         <v>0</v>
@@ -1757,10 +1757,10 @@
         <v>Open</v>
       </c>
       <c r="Q22" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R22" s="2">
-        <v>225</v>
+        <v>1350</v>
       </c>
       <c r="S22" s="2">
         <v>0</v>
@@ -1768,31 +1768,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="str">
-        <v>3.1.4</v>
+        <v>2.4</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D23" s="2" t="str">
-        <v>Générer les tables avec Identity</v>
+        <v>Prototype</v>
       </c>
       <c r="E23" s="2" t="str">
         <v/>
       </c>
       <c r="F23" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G23" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H23" s="2" t="str">
-        <v>08/06/2020 19:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I23" s="2" t="str">
-        <v>21/03/2020 10:08</v>
+        <v>24/03/2020 17:01</v>
       </c>
       <c r="J23" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="M23" s="2">
-        <v>1.5</v>
+        <v>36</v>
       </c>
       <c r="N23" s="2" t="str">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v/>
       </c>
       <c r="P23" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q23" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R23" s="2">
-        <v>225</v>
+        <v>5400</v>
       </c>
       <c r="S23" s="2">
         <v>0</v>
@@ -1827,31 +1827,31 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="str">
-        <v>3.2</v>
+        <v>2.4.1</v>
       </c>
       <c r="B24" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D24" s="2" t="str">
-        <v>Compte utilisateur</v>
+        <v>Système d'authentification avec identity framework</v>
       </c>
       <c r="E24" s="2" t="str">
         <v/>
       </c>
       <c r="F24" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G24" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H24" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I24" s="2" t="str">
-        <v>20/03/2020 09:54</v>
+        <v>24/03/2020 17:01</v>
       </c>
       <c r="J24" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1860,10 +1860,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M24" s="2">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="N24" s="2" t="str">
         <v>0</v>
@@ -1872,13 +1872,13 @@
         <v/>
       </c>
       <c r="P24" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q24" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R24" s="2">
-        <v>12600</v>
+        <v>2700</v>
       </c>
       <c r="S24" s="2">
         <v>0</v>
@@ -1886,31 +1886,31 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="str">
-        <v>3.2.1</v>
+        <v>2.4.2</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D25" s="2" t="str">
-        <v>Création de compte</v>
+        <v>Créer une fonction métier principale</v>
       </c>
       <c r="E25" s="2" t="str">
         <v/>
       </c>
       <c r="F25" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G25" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H25" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I25" s="2" t="str">
-        <v>20/03/2020 09:59</v>
+        <v>24/03/2020 17:02</v>
       </c>
       <c r="J25" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1919,10 +1919,10 @@
         <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M25" s="2">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="N25" s="2" t="str">
         <v>0</v>
@@ -1931,13 +1931,13 @@
         <v/>
       </c>
       <c r="P25" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q25" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R25" s="2">
-        <v>3600</v>
+        <v>1350</v>
       </c>
       <c r="S25" s="2">
         <v>0</v>
@@ -1945,16 +1945,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="str">
-        <v>3.2.1.1</v>
+        <v>2.4.3</v>
       </c>
       <c r="B26" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D26" s="2" t="str">
-        <v>Définir le modèle</v>
+        <v>Déploiement du prototype</v>
       </c>
       <c r="E26" s="2" t="str">
         <v/>
@@ -1963,13 +1963,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G26" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H26" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I26" s="2" t="str">
-        <v>21/03/2020 09:49</v>
+        <v>24/03/2020 17:02</v>
       </c>
       <c r="J26" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -1978,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M26" s="2">
         <v>9</v>
@@ -1993,7 +1993,7 @@
         <v>Open</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R26" s="2">
         <v>1350</v>
@@ -2004,31 +2004,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="str">
-        <v>3.2.1.2</v>
+        <v>3</v>
       </c>
       <c r="B27" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" s="2" t="str">
-        <v>task</v>
+        <v>project</v>
       </c>
       <c r="D27" s="2" t="str">
-        <v>Traitement des requêtes</v>
+        <v>Réalisation</v>
       </c>
       <c r="E27" s="2" t="str">
         <v/>
       </c>
       <c r="F27" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G27" s="2" t="str">
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H27" s="2" t="str">
-        <v>08/06/2020 19:00</v>
+        <v>01/09/2020 20:00</v>
       </c>
       <c r="I27" s="2" t="str">
-        <v>21/03/2020 09:50</v>
+        <v>20/03/2020 09:43</v>
       </c>
       <c r="J27" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2037,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <v>379</v>
+        <v>807</v>
       </c>
       <c r="M27" s="2">
-        <v>9</v>
+        <v>390</v>
       </c>
       <c r="N27" s="2" t="str">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v/>
       </c>
       <c r="P27" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q27" s="2" t="str">
-        <v>High</v>
+        <v/>
       </c>
       <c r="R27" s="2">
-        <v>1350</v>
+        <v>58500</v>
       </c>
       <c r="S27" s="2">
         <v>0</v>
@@ -2063,31 +2063,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="str">
-        <v>3.2.1.3</v>
+        <v>3.1</v>
       </c>
       <c r="B28" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D28" s="2" t="str">
-        <v>Token de confirmation</v>
+        <v>API sécurisé</v>
       </c>
       <c r="E28" s="2" t="str">
         <v/>
       </c>
       <c r="F28" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G28" s="2" t="str">
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H28" s="2" t="str">
-        <v>08/06/2020 19:00</v>
+        <v>01/09/2020 20:00</v>
       </c>
       <c r="I28" s="2" t="str">
-        <v>21/03/2020 09:50</v>
+        <v>20/03/2020 09:43</v>
       </c>
       <c r="J28" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <v>379</v>
+        <v>807</v>
       </c>
       <c r="M28" s="2">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="N28" s="2" t="str">
         <v>0</v>
@@ -2108,13 +2108,13 @@
         <v/>
       </c>
       <c r="P28" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q28" s="2" t="str">
-        <v>High</v>
+        <v/>
       </c>
       <c r="R28" s="2">
-        <v>900</v>
+        <v>13500</v>
       </c>
       <c r="S28" s="2">
         <v>0</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="str">
-        <v>3.2.2</v>
+        <v>3.1.1</v>
       </c>
       <c r="B29" s="2">
         <v>3</v>
@@ -2131,7 +2131,7 @@
         <v>tasks group</v>
       </c>
       <c r="D29" s="2" t="str">
-        <v>Authentification</v>
+        <v>Créer l'API</v>
       </c>
       <c r="E29" s="2" t="str">
         <v/>
@@ -2143,10 +2143,10 @@
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H29" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>08/06/2020 19:00</v>
       </c>
       <c r="I29" s="2" t="str">
-        <v>20/03/2020 09:59</v>
+        <v>21/03/2020 09:53</v>
       </c>
       <c r="J29" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2155,10 +2155,10 @@
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <v>807</v>
+        <v>379</v>
       </c>
       <c r="M29" s="2">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="N29" s="2" t="str">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v/>
       </c>
       <c r="R29" s="2">
-        <v>2700</v>
+        <v>12600</v>
       </c>
       <c r="S29" s="2">
         <v>0</v>
@@ -2181,31 +2181,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="str">
-        <v>3.2.2.1</v>
+        <v>3.1.1.1</v>
       </c>
       <c r="B30" s="2">
         <v>4</v>
       </c>
       <c r="C30" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D30" s="2" t="str">
-        <v>Traiter des requêtes</v>
+        <v>Créer les controlleurs</v>
       </c>
       <c r="E30" s="2" t="str">
         <v/>
       </c>
       <c r="F30" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G30" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H30" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I30" s="2" t="str">
-        <v>21/03/2020 10:03</v>
+        <v>21/03/2020 09:54</v>
       </c>
       <c r="J30" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2214,10 +2214,10 @@
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M30" s="2">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="N30" s="2" t="str">
         <v>0</v>
@@ -2226,13 +2226,13 @@
         <v/>
       </c>
       <c r="P30" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q30" s="2" t="str">
-        <v>Highest</v>
+        <v/>
       </c>
       <c r="R30" s="2">
-        <v>2700</v>
+        <v>9900</v>
       </c>
       <c r="S30" s="2">
         <v>0</v>
@@ -2240,31 +2240,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="str">
-        <v>3.2.3</v>
+        <v>3.1.1.1.1</v>
       </c>
       <c r="B31" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D31" s="2" t="str">
-        <v>Gestion du compte</v>
+        <v>C2</v>
       </c>
       <c r="E31" s="2" t="str">
         <v/>
       </c>
       <c r="F31" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G31" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H31" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I31" s="2" t="str">
-        <v>20/03/2020 10:00</v>
+        <v>24/03/2020 17:14</v>
       </c>
       <c r="J31" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2273,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M31" s="2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N31" s="2" t="str">
         <v>0</v>
@@ -2285,13 +2285,13 @@
         <v/>
       </c>
       <c r="P31" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q31" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R31" s="2">
-        <v>6300</v>
+        <v>4950</v>
       </c>
       <c r="S31" s="2">
         <v>0</v>
@@ -2299,16 +2299,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="str">
-        <v>3.2.3.1</v>
+        <v>3.1.1.1.2</v>
       </c>
       <c r="B32" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D32" s="2" t="str">
-        <v>Traitement des actions</v>
+        <v>C1</v>
       </c>
       <c r="E32" s="2" t="str">
         <v/>
@@ -2317,13 +2317,13 @@
         <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G32" s="2" t="str">
-        <v>24/03/2020 18:00</v>
+        <v>27/03/2020 16:00</v>
       </c>
       <c r="H32" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>02/05/2020 20:00</v>
       </c>
       <c r="I32" s="2" t="str">
-        <v>21/03/2020 10:04</v>
+        <v>24/03/2020 17:16</v>
       </c>
       <c r="J32" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <v>807</v>
+        <v>186</v>
       </c>
       <c r="M32" s="2">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="N32" s="2" t="str">
         <v>0</v>
@@ -2347,10 +2347,10 @@
         <v>Open</v>
       </c>
       <c r="Q32" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R32" s="2">
-        <v>2700</v>
+        <v>4950</v>
       </c>
       <c r="S32" s="2">
         <v>0</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="str">
-        <v>3.2.3.2</v>
+        <v>3.1.1.2</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
@@ -2367,7 +2367,7 @@
         <v>task</v>
       </c>
       <c r="D33" s="2" t="str">
-        <v>Mise à jour des tables</v>
+        <v>Créer les modèles</v>
       </c>
       <c r="E33" s="2" t="str">
         <v/>
@@ -2382,7 +2382,7 @@
         <v>08/06/2020 19:00</v>
       </c>
       <c r="I33" s="2" t="str">
-        <v>21/03/2020 10:07</v>
+        <v>21/03/2020 09:54</v>
       </c>
       <c r="J33" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2394,7 +2394,7 @@
         <v>379</v>
       </c>
       <c r="M33" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N33" s="2" t="str">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>Open</v>
       </c>
       <c r="Q33" s="2" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="R33" s="2">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="S33" s="2">
         <v>0</v>
@@ -2417,16 +2417,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="str">
-        <v>3.2.3.3</v>
+        <v>3.1.2</v>
       </c>
       <c r="B34" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D34" s="2" t="str">
-        <v>Supression du compte</v>
+        <v>Coupler Identity (Core) avec la technologie</v>
       </c>
       <c r="E34" s="2" t="str">
         <v/>
@@ -2441,7 +2441,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I34" s="2" t="str">
-        <v>20/03/2020 10:00</v>
+        <v>20/03/2020 09:57</v>
       </c>
       <c r="J34" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2453,7 +2453,7 @@
         <v>807</v>
       </c>
       <c r="M34" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N34" s="2" t="str">
         <v>0</v>
@@ -2465,10 +2465,10 @@
         <v>Open</v>
       </c>
       <c r="Q34" s="2" t="str">
-        <v>Medium</v>
+        <v>Highest</v>
       </c>
       <c r="R34" s="2">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="S34" s="2">
         <v>0</v>
@@ -2476,16 +2476,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="str">
-        <v>3.2.3.4</v>
+        <v>3.1.3</v>
       </c>
       <c r="B35" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D35" s="2" t="str">
-        <v>Récupération des données du compte</v>
+        <v>Créer l'emplacement pour les API</v>
       </c>
       <c r="E35" s="2" t="str">
         <v/>
@@ -2500,7 +2500,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I35" s="2" t="str">
-        <v>20/03/2020 10:00</v>
+        <v>20/03/2020 09:58</v>
       </c>
       <c r="J35" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2512,7 +2512,7 @@
         <v>807</v>
       </c>
       <c r="M35" s="2">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="N35" s="2" t="str">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>Open</v>
       </c>
       <c r="Q35" s="2" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="R35" s="2">
-        <v>1350</v>
+        <v>225</v>
       </c>
       <c r="S35" s="2">
         <v>0</v>
@@ -2535,31 +2535,31 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="str">
-        <v>3.3</v>
+        <v>3.1.4</v>
       </c>
       <c r="B36" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D36" s="2" t="str">
-        <v>Système de paiement</v>
+        <v>Générer les tables avec Identity</v>
       </c>
       <c r="E36" s="2" t="str">
         <v/>
       </c>
       <c r="F36" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G36" s="2" t="str">
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H36" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>08/06/2020 19:00</v>
       </c>
       <c r="I36" s="2" t="str">
-        <v>20/03/2020 09:54</v>
+        <v>21/03/2020 10:08</v>
       </c>
       <c r="J36" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2568,10 +2568,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <v>807</v>
+        <v>379</v>
       </c>
       <c r="M36" s="2">
-        <v>21</v>
+        <v>1.5</v>
       </c>
       <c r="N36" s="2" t="str">
         <v>0</v>
@@ -2580,13 +2580,13 @@
         <v/>
       </c>
       <c r="P36" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q36" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R36" s="2">
-        <v>3150</v>
+        <v>225</v>
       </c>
       <c r="S36" s="2">
         <v>0</v>
@@ -2594,31 +2594,31 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="str">
-        <v>3.3.1</v>
+        <v>3.2</v>
       </c>
       <c r="B37" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D37" s="2" t="str">
-        <v>Communication avec l'API Stripe (Certificat)</v>
+        <v>Compte utilisateur</v>
       </c>
       <c r="E37" s="2" t="str">
         <v/>
       </c>
       <c r="F37" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G37" s="2" t="str">
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H37" s="2" t="str">
-        <v>24/03/2020 19:00</v>
+        <v>01/09/2020 20:00</v>
       </c>
       <c r="I37" s="2" t="str">
-        <v>20/03/2020 10:01</v>
+        <v>20/03/2020 09:54</v>
       </c>
       <c r="J37" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2627,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="2">
-        <v>1</v>
+        <v>807</v>
       </c>
       <c r="M37" s="2">
-        <v>1.5</v>
+        <v>84</v>
       </c>
       <c r="N37" s="2" t="str">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v/>
       </c>
       <c r="P37" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q37" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R37" s="2">
-        <v>225</v>
+        <v>12600</v>
       </c>
       <c r="S37" s="2">
         <v>0</v>
@@ -2653,22 +2653,22 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="str">
-        <v>3.3.2</v>
+        <v>3.2.1</v>
       </c>
       <c r="B38" s="2">
         <v>3</v>
       </c>
       <c r="C38" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D38" s="2" t="str">
-        <v>Intégration du module</v>
+        <v>Création de compte</v>
       </c>
       <c r="E38" s="2" t="str">
         <v/>
       </c>
       <c r="F38" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G38" s="2" t="str">
         <v>24/03/2020 18:00</v>
@@ -2677,7 +2677,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I38" s="2" t="str">
-        <v>20/03/2020 10:01</v>
+        <v>20/03/2020 09:59</v>
       </c>
       <c r="J38" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2689,7 +2689,7 @@
         <v>807</v>
       </c>
       <c r="M38" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="N38" s="2" t="str">
         <v>0</v>
@@ -2698,13 +2698,13 @@
         <v/>
       </c>
       <c r="P38" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q38" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R38" s="2">
-        <v>1800</v>
+        <v>3600</v>
       </c>
       <c r="S38" s="2">
         <v>0</v>
@@ -2712,16 +2712,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="str">
-        <v>3.3.3</v>
+        <v>3.2.1.1</v>
       </c>
       <c r="B39" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D39" s="2" t="str">
-        <v>Créer un webhook</v>
+        <v>Définir le modèle</v>
       </c>
       <c r="E39" s="2" t="str">
         <v/>
@@ -2736,7 +2736,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I39" s="2" t="str">
-        <v>21/03/2020 10:21</v>
+        <v>21/03/2020 09:49</v>
       </c>
       <c r="J39" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2748,7 +2748,7 @@
         <v>807</v>
       </c>
       <c r="M39" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N39" s="2" t="str">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>Open</v>
       </c>
       <c r="Q39" s="2" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="R39" s="2">
-        <v>900</v>
+        <v>1350</v>
       </c>
       <c r="S39" s="2">
         <v>0</v>
@@ -2771,16 +2771,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="str">
-        <v>3.3.4</v>
+        <v>3.2.1.2</v>
       </c>
       <c r="B40" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D40" s="2" t="str">
-        <v>Définition du moyen de paiement</v>
+        <v>Traitement des requêtes</v>
       </c>
       <c r="E40" s="2" t="str">
         <v/>
@@ -2792,10 +2792,10 @@
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H40" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>08/06/2020 19:00</v>
       </c>
       <c r="I40" s="2" t="str">
-        <v>20/03/2020 10:02</v>
+        <v>21/03/2020 09:50</v>
       </c>
       <c r="J40" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="L40" s="2">
-        <v>807</v>
+        <v>379</v>
       </c>
       <c r="M40" s="2">
-        <v>1.5</v>
+        <v>9</v>
       </c>
       <c r="N40" s="2" t="str">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>Open</v>
       </c>
       <c r="Q40" s="2" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="R40" s="2">
-        <v>225</v>
+        <v>1350</v>
       </c>
       <c r="S40" s="2">
         <v>0</v>
@@ -2830,31 +2830,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="str">
-        <v>3.4</v>
+        <v>3.2.1.3</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C41" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D41" s="2" t="str">
-        <v>Outil de communication</v>
+        <v>Token de confirmation</v>
       </c>
       <c r="E41" s="2" t="str">
         <v/>
       </c>
       <c r="F41" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G41" s="2" t="str">
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H41" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>08/06/2020 19:00</v>
       </c>
       <c r="I41" s="2" t="str">
-        <v>20/03/2020 09:54</v>
+        <v>21/03/2020 09:50</v>
       </c>
       <c r="J41" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <v>807</v>
+        <v>379</v>
       </c>
       <c r="M41" s="2">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="N41" s="2" t="str">
         <v>0</v>
@@ -2875,13 +2875,13 @@
         <v/>
       </c>
       <c r="P41" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q41" s="2" t="str">
-        <v/>
+        <v>High</v>
       </c>
       <c r="R41" s="2">
-        <v>13050</v>
+        <v>900</v>
       </c>
       <c r="S41" s="2">
         <v>0</v>
@@ -2889,22 +2889,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="str">
-        <v>3.4.1</v>
+        <v>3.2.2</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D42" s="2" t="str">
-        <v>Chat général</v>
+        <v>Authentification</v>
       </c>
       <c r="E42" s="2" t="str">
         <v/>
       </c>
       <c r="F42" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G42" s="2" t="str">
         <v>24/03/2020 18:00</v>
@@ -2913,7 +2913,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I42" s="2" t="str">
-        <v>20/03/2020 10:02</v>
+        <v>20/03/2020 09:59</v>
       </c>
       <c r="J42" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2934,10 +2934,10 @@
         <v/>
       </c>
       <c r="P42" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q42" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R42" s="2">
         <v>2700</v>
@@ -2948,16 +2948,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="str">
-        <v>3.4.2</v>
+        <v>3.2.2.1</v>
       </c>
       <c r="B43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D43" s="2" t="str">
-        <v>Chat privé entre utilisateur</v>
+        <v>Traiter des requêtes</v>
       </c>
       <c r="E43" s="2" t="str">
         <v/>
@@ -2972,7 +2972,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I43" s="2" t="str">
-        <v>20/03/2020 10:03</v>
+        <v>21/03/2020 10:03</v>
       </c>
       <c r="J43" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -2984,7 +2984,7 @@
         <v>807</v>
       </c>
       <c r="M43" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N43" s="2" t="str">
         <v>0</v>
@@ -2996,10 +2996,10 @@
         <v>Open</v>
       </c>
       <c r="Q43" s="2" t="str">
-        <v>Medium</v>
+        <v>Highest</v>
       </c>
       <c r="R43" s="2">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="S43" s="2">
         <v>0</v>
@@ -3007,22 +3007,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="str">
-        <v>3.4.3</v>
+        <v>3.2.3</v>
       </c>
       <c r="B44" s="2">
         <v>3</v>
       </c>
       <c r="C44" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D44" s="2" t="str">
-        <v>Bot</v>
+        <v>Gestion du compte</v>
       </c>
       <c r="E44" s="2" t="str">
         <v/>
       </c>
       <c r="F44" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G44" s="2" t="str">
         <v>24/03/2020 18:00</v>
@@ -3031,7 +3031,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I44" s="2" t="str">
-        <v>20/03/2020 10:03</v>
+        <v>20/03/2020 10:00</v>
       </c>
       <c r="J44" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3043,7 +3043,7 @@
         <v>807</v>
       </c>
       <c r="M44" s="2">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="N44" s="2" t="str">
         <v>0</v>
@@ -3052,13 +3052,13 @@
         <v/>
       </c>
       <c r="P44" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q44" s="2" t="str">
-        <v>Medium</v>
+        <v/>
       </c>
       <c r="R44" s="2">
-        <v>4050</v>
+        <v>6300</v>
       </c>
       <c r="S44" s="2">
         <v>0</v>
@@ -3066,16 +3066,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="str">
-        <v>3.4.4</v>
+        <v>3.2.3.1</v>
       </c>
       <c r="B45" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D45" s="2" t="str">
-        <v>Support client</v>
+        <v>Traitement des actions</v>
       </c>
       <c r="E45" s="2" t="str">
         <v/>
@@ -3090,7 +3090,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I45" s="2" t="str">
-        <v>20/03/2020 10:03</v>
+        <v>21/03/2020 10:04</v>
       </c>
       <c r="J45" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3114,7 +3114,7 @@
         <v>Open</v>
       </c>
       <c r="Q45" s="2" t="str">
-        <v>Medium</v>
+        <v>High</v>
       </c>
       <c r="R45" s="2">
         <v>2700</v>
@@ -3125,16 +3125,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="str">
-        <v>3.4.5</v>
+        <v>3.2.3.2</v>
       </c>
       <c r="B46" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D46" s="2" t="str">
-        <v>Newsletter avec Sendgrid</v>
+        <v>Mise à jour des tables</v>
       </c>
       <c r="E46" s="2" t="str">
         <v/>
@@ -3146,10 +3146,10 @@
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H46" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>08/06/2020 19:00</v>
       </c>
       <c r="I46" s="2" t="str">
-        <v>20/03/2020 10:03</v>
+        <v>21/03/2020 10:07</v>
       </c>
       <c r="J46" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <v>807</v>
+        <v>379</v>
       </c>
       <c r="M46" s="2">
         <v>9</v>
@@ -3184,22 +3184,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="str">
-        <v>3.5</v>
+        <v>3.2.3.3</v>
       </c>
       <c r="B47" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C47" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D47" s="2" t="str">
-        <v>Vérification de compte</v>
+        <v>Supression du compte</v>
       </c>
       <c r="E47" s="2" t="str">
         <v/>
       </c>
       <c r="F47" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G47" s="2" t="str">
         <v>24/03/2020 18:00</v>
@@ -3208,7 +3208,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I47" s="2" t="str">
-        <v>20/03/2020 09:54</v>
+        <v>20/03/2020 10:00</v>
       </c>
       <c r="J47" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3220,7 +3220,7 @@
         <v>807</v>
       </c>
       <c r="M47" s="2">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N47" s="2" t="str">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v/>
       </c>
       <c r="P47" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q47" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R47" s="2">
-        <v>3150</v>
+        <v>900</v>
       </c>
       <c r="S47" s="2">
         <v>0</v>
@@ -3243,16 +3243,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="str">
-        <v>3.5.1</v>
+        <v>3.2.3.4</v>
       </c>
       <c r="B48" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D48" s="2" t="str">
-        <v>SMS</v>
+        <v>Récupération des données du compte</v>
       </c>
       <c r="E48" s="2" t="str">
         <v/>
@@ -3267,7 +3267,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I48" s="2" t="str">
-        <v>20/03/2020 10:04</v>
+        <v>20/03/2020 10:00</v>
       </c>
       <c r="J48" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3291,7 +3291,7 @@
         <v>Open</v>
       </c>
       <c r="Q48" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R48" s="2">
         <v>1350</v>
@@ -3302,22 +3302,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="str">
-        <v>3.5.2</v>
+        <v>3.3</v>
       </c>
       <c r="B49" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C49" s="2" t="str">
-        <v>task</v>
+        <v>tasks group</v>
       </c>
       <c r="D49" s="2" t="str">
-        <v>Contrôle des photos</v>
+        <v>Système de paiement</v>
       </c>
       <c r="E49" s="2" t="str">
         <v/>
       </c>
       <c r="F49" s="2" t="str">
-        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+        <v/>
       </c>
       <c r="G49" s="2" t="str">
         <v>24/03/2020 18:00</v>
@@ -3326,7 +3326,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I49" s="2" t="str">
-        <v>20/03/2020 10:04</v>
+        <v>20/03/2020 09:54</v>
       </c>
       <c r="J49" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3338,7 +3338,7 @@
         <v>807</v>
       </c>
       <c r="M49" s="2">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="N49" s="2" t="str">
         <v>0</v>
@@ -3347,13 +3347,13 @@
         <v/>
       </c>
       <c r="P49" s="2" t="str">
-        <v>Open</v>
+        <v/>
       </c>
       <c r="Q49" s="2" t="str">
-        <v>High</v>
+        <v/>
       </c>
       <c r="R49" s="2">
-        <v>450</v>
+        <v>3150</v>
       </c>
       <c r="S49" s="2">
         <v>0</v>
@@ -3361,7 +3361,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="str">
-        <v>3.5.3</v>
+        <v>3.3.1</v>
       </c>
       <c r="B50" s="2">
         <v>3</v>
@@ -3370,7 +3370,7 @@
         <v>task</v>
       </c>
       <c r="D50" s="2" t="str">
-        <v>Etablissement du profil</v>
+        <v>Communication avec l'API Stripe (Certificat)</v>
       </c>
       <c r="E50" s="2" t="str">
         <v/>
@@ -3382,10 +3382,10 @@
         <v>24/03/2020 18:00</v>
       </c>
       <c r="H50" s="2" t="str">
-        <v>01/09/2020 20:00</v>
+        <v>24/03/2020 19:00</v>
       </c>
       <c r="I50" s="2" t="str">
-        <v>20/03/2020 10:04</v>
+        <v>20/03/2020 10:01</v>
       </c>
       <c r="J50" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3394,10 +3394,10 @@
         <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>807</v>
+        <v>1</v>
       </c>
       <c r="M50" s="2">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="N50" s="2" t="str">
         <v>0</v>
@@ -3409,10 +3409,10 @@
         <v>Open</v>
       </c>
       <c r="Q50" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R50" s="2">
-        <v>1350</v>
+        <v>225</v>
       </c>
       <c r="S50" s="2">
         <v>0</v>
@@ -3420,22 +3420,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="str">
-        <v>3.6</v>
+        <v>3.3.2</v>
       </c>
       <c r="B51" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="str">
-        <v>tasks group</v>
+        <v>task</v>
       </c>
       <c r="D51" s="2" t="str">
-        <v>Affichage des profils</v>
+        <v>Intégration du module</v>
       </c>
       <c r="E51" s="2" t="str">
         <v/>
       </c>
       <c r="F51" s="2" t="str">
-        <v/>
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
       </c>
       <c r="G51" s="2" t="str">
         <v>24/03/2020 18:00</v>
@@ -3444,7 +3444,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I51" s="2" t="str">
-        <v>20/03/2020 09:55</v>
+        <v>20/03/2020 10:01</v>
       </c>
       <c r="J51" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3456,7 +3456,7 @@
         <v>807</v>
       </c>
       <c r="M51" s="2">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="N51" s="2" t="str">
         <v>0</v>
@@ -3465,13 +3465,13 @@
         <v/>
       </c>
       <c r="P51" s="2" t="str">
-        <v/>
+        <v>Open</v>
       </c>
       <c r="Q51" s="2" t="str">
-        <v/>
+        <v>Medium</v>
       </c>
       <c r="R51" s="2">
-        <v>4950</v>
+        <v>1800</v>
       </c>
       <c r="S51" s="2">
         <v>0</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="str">
-        <v>3.6.1</v>
+        <v>3.3.3</v>
       </c>
       <c r="B52" s="2">
         <v>3</v>
@@ -3488,7 +3488,7 @@
         <v>task</v>
       </c>
       <c r="D52" s="2" t="str">
-        <v>Algorithme de match</v>
+        <v>Créer un webhook</v>
       </c>
       <c r="E52" s="2" t="str">
         <v/>
@@ -3503,7 +3503,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I52" s="2" t="str">
-        <v>20/03/2020 10:04</v>
+        <v>21/03/2020 10:21</v>
       </c>
       <c r="J52" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3515,7 +3515,7 @@
         <v>807</v>
       </c>
       <c r="M52" s="2">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="N52" s="2" t="str">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>Open</v>
       </c>
       <c r="Q52" s="2" t="str">
-        <v>Highest</v>
+        <v>Medium</v>
       </c>
       <c r="R52" s="2">
-        <v>3600</v>
+        <v>900</v>
       </c>
       <c r="S52" s="2">
         <v>0</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="str">
-        <v>3.6.2</v>
+        <v>3.3.4</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
@@ -3547,7 +3547,7 @@
         <v>task</v>
       </c>
       <c r="D53" s="2" t="str">
-        <v>Visualisation des profils</v>
+        <v>Définition du moyen de paiement</v>
       </c>
       <c r="E53" s="2" t="str">
         <v/>
@@ -3562,7 +3562,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I53" s="2" t="str">
-        <v>20/03/2020 10:05</v>
+        <v>20/03/2020 10:02</v>
       </c>
       <c r="J53" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3574,7 +3574,7 @@
         <v>807</v>
       </c>
       <c r="M53" s="2">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="N53" s="2" t="str">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>Open</v>
       </c>
       <c r="Q53" s="2" t="str">
-        <v>Highest</v>
+        <v>Medium</v>
       </c>
       <c r="R53" s="2">
-        <v>1350</v>
+        <v>225</v>
       </c>
       <c r="S53" s="2">
         <v>0</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="str">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="B54" s="2">
         <v>2</v>
@@ -3606,7 +3606,7 @@
         <v>tasks group</v>
       </c>
       <c r="D54" s="2" t="str">
-        <v>Administration</v>
+        <v>Outil de communication</v>
       </c>
       <c r="E54" s="2" t="str">
         <v/>
@@ -3621,7 +3621,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I54" s="2" t="str">
-        <v>20/03/2020 09:56</v>
+        <v>20/03/2020 09:54</v>
       </c>
       <c r="J54" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3633,7 +3633,7 @@
         <v>807</v>
       </c>
       <c r="M54" s="2">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="N54" s="2" t="str">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v/>
       </c>
       <c r="R54" s="2">
-        <v>8100</v>
+        <v>13050</v>
       </c>
       <c r="S54" s="2">
         <v>0</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="str">
-        <v>3.7.1</v>
+        <v>3.4.1</v>
       </c>
       <c r="B55" s="2">
         <v>3</v>
@@ -3665,7 +3665,7 @@
         <v>task</v>
       </c>
       <c r="D55" s="2" t="str">
-        <v>Gestion des rôles</v>
+        <v>Chat général</v>
       </c>
       <c r="E55" s="2" t="str">
         <v/>
@@ -3680,7 +3680,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I55" s="2" t="str">
-        <v>20/03/2020 10:05</v>
+        <v>20/03/2020 10:02</v>
       </c>
       <c r="J55" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3692,7 +3692,7 @@
         <v>807</v>
       </c>
       <c r="M55" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N55" s="2" t="str">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>Open</v>
       </c>
       <c r="Q55" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R55" s="2">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="S55" s="2">
         <v>0</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="str">
-        <v>3.7.2</v>
+        <v>3.4.2</v>
       </c>
       <c r="B56" s="2">
         <v>3</v>
@@ -3724,7 +3724,7 @@
         <v>task</v>
       </c>
       <c r="D56" s="2" t="str">
-        <v>Traçabilité des connexions</v>
+        <v>Chat privé entre utilisateur</v>
       </c>
       <c r="E56" s="2" t="str">
         <v/>
@@ -3739,7 +3739,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I56" s="2" t="str">
-        <v>20/03/2020 10:05</v>
+        <v>20/03/2020 10:03</v>
       </c>
       <c r="J56" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3751,7 +3751,7 @@
         <v>807</v>
       </c>
       <c r="M56" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N56" s="2" t="str">
         <v>0</v>
@@ -3763,10 +3763,10 @@
         <v>Open</v>
       </c>
       <c r="Q56" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R56" s="2">
-        <v>1800</v>
+        <v>2250</v>
       </c>
       <c r="S56" s="2">
         <v>0</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="str">
-        <v>3.7.3</v>
+        <v>3.4.3</v>
       </c>
       <c r="B57" s="2">
         <v>3</v>
@@ -3783,7 +3783,7 @@
         <v>task</v>
       </c>
       <c r="D57" s="2" t="str">
-        <v>Demande de réinitialisation des mdp</v>
+        <v>Bot</v>
       </c>
       <c r="E57" s="2" t="str">
         <v/>
@@ -3798,7 +3798,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I57" s="2" t="str">
-        <v>20/03/2020 10:05</v>
+        <v>20/03/2020 10:03</v>
       </c>
       <c r="J57" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3810,7 +3810,7 @@
         <v>807</v>
       </c>
       <c r="M57" s="2">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N57" s="2" t="str">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>Open</v>
       </c>
       <c r="Q57" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R57" s="2">
-        <v>450</v>
+        <v>4050</v>
       </c>
       <c r="S57" s="2">
         <v>0</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="str">
-        <v>3.7.4</v>
+        <v>3.4.4</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
@@ -3842,7 +3842,7 @@
         <v>task</v>
       </c>
       <c r="D58" s="2" t="str">
-        <v>Implémentation des langues</v>
+        <v>Support client</v>
       </c>
       <c r="E58" s="2" t="str">
         <v/>
@@ -3857,7 +3857,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I58" s="2" t="str">
-        <v>20/03/2020 10:06</v>
+        <v>20/03/2020 10:03</v>
       </c>
       <c r="J58" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3869,7 +3869,7 @@
         <v>807</v>
       </c>
       <c r="M58" s="2">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="N58" s="2" t="str">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>Open</v>
       </c>
       <c r="Q58" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R58" s="2">
-        <v>1350</v>
+        <v>2700</v>
       </c>
       <c r="S58" s="2">
         <v>0</v>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="str">
-        <v>3.7.5</v>
+        <v>3.4.5</v>
       </c>
       <c r="B59" s="2">
         <v>3</v>
@@ -3901,7 +3901,7 @@
         <v>task</v>
       </c>
       <c r="D59" s="2" t="str">
-        <v>Gestion des comptes</v>
+        <v>Newsletter avec Sendgrid</v>
       </c>
       <c r="E59" s="2" t="str">
         <v/>
@@ -3916,7 +3916,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I59" s="2" t="str">
-        <v>20/03/2020 10:06</v>
+        <v>20/03/2020 10:03</v>
       </c>
       <c r="J59" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3928,7 +3928,7 @@
         <v>807</v>
       </c>
       <c r="M59" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="N59" s="2" t="str">
         <v>0</v>
@@ -3940,10 +3940,10 @@
         <v>Open</v>
       </c>
       <c r="Q59" s="2" t="str">
-        <v>High</v>
+        <v>Medium</v>
       </c>
       <c r="R59" s="2">
-        <v>2700</v>
+        <v>1350</v>
       </c>
       <c r="S59" s="2">
         <v>0</v>
@@ -3951,16 +3951,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="str">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="B60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="str">
-        <v>project</v>
+        <v>tasks group</v>
       </c>
       <c r="D60" s="2" t="str">
-        <v>Déploiement</v>
+        <v>Vérification de compte</v>
       </c>
       <c r="E60" s="2" t="str">
         <v/>
@@ -3975,7 +3975,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I60" s="2" t="str">
-        <v>20/03/2020 09:43</v>
+        <v>20/03/2020 09:54</v>
       </c>
       <c r="J60" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -3987,7 +3987,7 @@
         <v>807</v>
       </c>
       <c r="M60" s="2">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="N60" s="2" t="str">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v/>
       </c>
       <c r="R60" s="2">
-        <v>9000</v>
+        <v>3150</v>
       </c>
       <c r="S60" s="2">
         <v>0</v>
@@ -4010,16 +4010,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="str">
-        <v>4.1</v>
+        <v>3.5.1</v>
       </c>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D61" s="2" t="str">
-        <v>Déploiement Azure</v>
+        <v>SMS</v>
       </c>
       <c r="E61" s="2" t="str">
         <v/>
@@ -4034,7 +4034,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I61" s="2" t="str">
-        <v>20/03/2020 09:43</v>
+        <v>20/03/2020 10:04</v>
       </c>
       <c r="J61" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -4046,7 +4046,7 @@
         <v>807</v>
       </c>
       <c r="M61" s="2">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="N61" s="2" t="str">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>Open</v>
       </c>
       <c r="Q61" s="2" t="str">
-        <v>Highest</v>
+        <v>High</v>
       </c>
       <c r="R61" s="2">
-        <v>4500</v>
+        <v>1350</v>
       </c>
       <c r="S61" s="2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="str">
-        <v>4.2</v>
+        <v>3.5.2</v>
       </c>
       <c r="B62" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="str">
         <v>task</v>
       </c>
       <c r="D62" s="2" t="str">
-        <v>Mise en place de la BDD Azure</v>
+        <v>Contrôle des photos</v>
       </c>
       <c r="E62" s="2" t="str">
         <v/>
@@ -4093,7 +4093,7 @@
         <v>01/09/2020 20:00</v>
       </c>
       <c r="I62" s="2" t="str">
-        <v>20/03/2020 10:13</v>
+        <v>20/03/2020 10:04</v>
       </c>
       <c r="J62" s="2" t="str">
         <v>Sébastien Berger</v>
@@ -4105,7 +4105,7 @@
         <v>807</v>
       </c>
       <c r="M62" s="2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="N62" s="2" t="str">
         <v>0</v>
@@ -4117,12 +4117,779 @@
         <v>Open</v>
       </c>
       <c r="Q62" s="2" t="str">
+        <v>High</v>
+      </c>
+      <c r="R62" s="2">
+        <v>450</v>
+      </c>
+      <c r="S62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="str">
+        <v>3.5.3</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <v>Etablissement du profil</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F63" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G63" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H63" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <v>20/03/2020 10:04</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2">
+        <v>807</v>
+      </c>
+      <c r="M63" s="2">
+        <v>9</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P63" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q63" s="2" t="str">
+        <v>High</v>
+      </c>
+      <c r="R63" s="2">
+        <v>1350</v>
+      </c>
+      <c r="S63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="str">
+        <v>3.6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <v>tasks group</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <v>Affichage des profils</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F64" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G64" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H64" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <v>20/03/2020 09:55</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K64" s="2">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>807</v>
+      </c>
+      <c r="M64" s="2">
+        <v>33</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O64" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P64" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q64" s="2" t="str">
+        <v/>
+      </c>
+      <c r="R64" s="2">
+        <v>4950</v>
+      </c>
+      <c r="S64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="str">
+        <v>3.6.1</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <v>Algorithme de match</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F65" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H65" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <v>20/03/2020 10:04</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K65" s="2">
+        <v>0</v>
+      </c>
+      <c r="L65" s="2">
+        <v>807</v>
+      </c>
+      <c r="M65" s="2">
+        <v>24</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P65" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q65" s="2" t="str">
         <v>Highest</v>
       </c>
-      <c r="R62" s="2">
+      <c r="R65" s="2">
+        <v>3600</v>
+      </c>
+      <c r="S65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="str">
+        <v>3.6.2</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <v>Visualisation des profils</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F66" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H66" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <v>20/03/2020 10:05</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K66" s="2">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>807</v>
+      </c>
+      <c r="M66" s="2">
+        <v>9</v>
+      </c>
+      <c r="N66" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O66" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P66" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q66" s="2" t="str">
+        <v>Highest</v>
+      </c>
+      <c r="R66" s="2">
+        <v>1350</v>
+      </c>
+      <c r="S66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="str">
+        <v>3.7</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <v>tasks group</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <v>Administration</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F67" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G67" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H67" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <v>20/03/2020 09:56</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K67" s="2">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>807</v>
+      </c>
+      <c r="M67" s="2">
+        <v>54</v>
+      </c>
+      <c r="N67" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P67" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q67" s="2" t="str">
+        <v/>
+      </c>
+      <c r="R67" s="2">
+        <v>8100</v>
+      </c>
+      <c r="S67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="str">
+        <v>3.7.1</v>
+      </c>
+      <c r="B68" s="2">
+        <v>3</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <v>Gestion des rôles</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F68" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G68" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H68" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I68" s="2" t="str">
+        <v>20/03/2020 10:05</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K68" s="2">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>807</v>
+      </c>
+      <c r="M68" s="2">
+        <v>12</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P68" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q68" s="2" t="str">
+        <v>High</v>
+      </c>
+      <c r="R68" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="str">
+        <v>3.7.2</v>
+      </c>
+      <c r="B69" s="2">
+        <v>3</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <v>Traçabilité des connexions</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F69" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G69" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H69" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <v>20/03/2020 10:05</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K69" s="2">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>807</v>
+      </c>
+      <c r="M69" s="2">
+        <v>12</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P69" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q69" s="2" t="str">
+        <v>High</v>
+      </c>
+      <c r="R69" s="2">
+        <v>1800</v>
+      </c>
+      <c r="S69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="str">
+        <v>3.7.3</v>
+      </c>
+      <c r="B70" s="2">
+        <v>3</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D70" s="2" t="str">
+        <v>Demande de réinitialisation des mdp</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F70" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G70" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H70" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <v>20/03/2020 10:05</v>
+      </c>
+      <c r="J70" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K70" s="2">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>807</v>
+      </c>
+      <c r="M70" s="2">
+        <v>3</v>
+      </c>
+      <c r="N70" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P70" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q70" s="2" t="str">
+        <v>High</v>
+      </c>
+      <c r="R70" s="2">
+        <v>450</v>
+      </c>
+      <c r="S70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="str">
+        <v>3.7.4</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D71" s="2" t="str">
+        <v>Implémentation des langues</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F71" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G71" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H71" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I71" s="2" t="str">
+        <v>20/03/2020 10:06</v>
+      </c>
+      <c r="J71" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K71" s="2">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>807</v>
+      </c>
+      <c r="M71" s="2">
+        <v>9</v>
+      </c>
+      <c r="N71" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P71" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q71" s="2" t="str">
+        <v>High</v>
+      </c>
+      <c r="R71" s="2">
+        <v>1350</v>
+      </c>
+      <c r="S71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="str">
+        <v>3.7.5</v>
+      </c>
+      <c r="B72" s="2">
+        <v>3</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D72" s="2" t="str">
+        <v>Gestion des comptes</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F72" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G72" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H72" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I72" s="2" t="str">
+        <v>20/03/2020 10:06</v>
+      </c>
+      <c r="J72" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K72" s="2">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>807</v>
+      </c>
+      <c r="M72" s="2">
+        <v>18</v>
+      </c>
+      <c r="N72" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P72" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q72" s="2" t="str">
+        <v>High</v>
+      </c>
+      <c r="R72" s="2">
+        <v>2700</v>
+      </c>
+      <c r="S72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="str">
+        <v>4</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <v>project</v>
+      </c>
+      <c r="D73" s="2" t="str">
+        <v>Déploiement</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G73" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H73" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <v>20/03/2020 09:43</v>
+      </c>
+      <c r="J73" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K73" s="2">
+        <v>0</v>
+      </c>
+      <c r="L73" s="2">
+        <v>807</v>
+      </c>
+      <c r="M73" s="2">
+        <v>60</v>
+      </c>
+      <c r="N73" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="Q73" s="2" t="str">
+        <v/>
+      </c>
+      <c r="R73" s="2">
+        <v>9000</v>
+      </c>
+      <c r="S73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="str">
+        <v>4.1</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D74" s="2" t="str">
+        <v>Déploiement Azure</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F74" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G74" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H74" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I74" s="2" t="str">
+        <v>20/03/2020 09:43</v>
+      </c>
+      <c r="J74" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K74" s="2">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>807</v>
+      </c>
+      <c r="M74" s="2">
+        <v>30</v>
+      </c>
+      <c r="N74" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P74" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q74" s="2" t="str">
+        <v>Highest</v>
+      </c>
+      <c r="R74" s="2">
         <v>4500</v>
       </c>
-      <c r="S62" s="2">
+      <c r="S74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="str">
+        <v>4.2</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <v>task</v>
+      </c>
+      <c r="D75" s="2" t="str">
+        <v>Mise en place de la BDD Azure</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <v/>
+      </c>
+      <c r="F75" s="2" t="str">
+        <v>Sébastien Berger, Tim Allemann, Hans Morsch</v>
+      </c>
+      <c r="G75" s="2" t="str">
+        <v>24/03/2020 18:00</v>
+      </c>
+      <c r="H75" s="2" t="str">
+        <v>01/09/2020 20:00</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <v>20/03/2020 10:13</v>
+      </c>
+      <c r="J75" s="2" t="str">
+        <v>Sébastien Berger</v>
+      </c>
+      <c r="K75" s="2">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>807</v>
+      </c>
+      <c r="M75" s="2">
+        <v>30</v>
+      </c>
+      <c r="N75" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2" t="str">
+        <v/>
+      </c>
+      <c r="P75" s="2" t="str">
+        <v>Open</v>
+      </c>
+      <c r="Q75" s="2" t="str">
+        <v>Highest</v>
+      </c>
+      <c r="R75" s="2">
+        <v>4500</v>
+      </c>
+      <c r="S75" s="2">
         <v>0</v>
       </c>
     </row>
